--- a/Cost Spreadsheet.xlsx
+++ b/Cost Spreadsheet.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiden\Stuff\School\Year 10\iSTEM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA3C2A3-FEF7-4B7F-B519-0066EE311A47}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7080" xr2:uid="{FA52B5E6-2788-4107-83C3-529F2FFB1C12}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Frame</t>
   </si>
@@ -86,9 +80,6 @@
     <t>plus shell</t>
   </si>
   <si>
-    <t>ADDITIONAL</t>
-  </si>
-  <si>
     <t>Duct tape (x5)</t>
   </si>
   <si>
@@ -98,17 +89,47 @@
     <t>Shell</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>Includes cost of shell as well as all necessary additional accessories</t>
+  </si>
+  <si>
+    <t>Component costs</t>
+  </si>
+  <si>
+    <t>Additional</t>
+  </si>
+  <si>
+    <t>Gearing</t>
+  </si>
+  <si>
+    <t>Shimano</t>
+  </si>
+  <si>
+    <t>Di2 11 speed. Electric shift</t>
+  </si>
+  <si>
+    <t>XTR M9000 rear derailleur</t>
+  </si>
+  <si>
+    <t>XT M8000 11 speed rear mech</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Tourney Rear Derailleur 6 speed</t>
+  </si>
+  <si>
+    <t>Bubble Shield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +140,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -145,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -154,12 +183,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9CF98F"/>
+      <color rgb="FFEC1818"/>
+      <color rgb="FFF9B42B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -460,203 +508,356 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70864756-D75C-4BCE-952A-E9EBEAA80475}">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1600</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <f>D5/C5</f>
+        <v>6.2500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5">
+        <v>200</v>
+      </c>
+      <c r="D6" s="5">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <f>D6/C6</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>D7/C7</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <f>D8/C8</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1800</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1800</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
+      <c r="H12">
         <v>40</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>750</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
         <v>19</v>
       </c>
-      <c r="H2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>180</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <f>SUM(B12:B24)</f>
+        <v>4322</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <f>SUM(E12:E21)</f>
+        <v>95</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <f>SUM(H12:H24)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>750</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>180</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <f>SUM(B25,E25, H25)</f>
+        <v>4457</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <f>SUM(B2:B14)</f>
-        <v>3872</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <f>SUM(E2:E11)</f>
-        <v>95</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15">
-        <f>SUM(H2:H14)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <f>SUM(B15,E15, H15)</f>
-        <v>4007</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B18:E18"/>
+  <mergeCells count="2">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
+  <conditionalFormatting sqref="C5:C8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="750"/>
+        <color rgb="FF9CF98F"/>
+        <color rgb="FFEC1818"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFEC1818"/>
+        <color rgb="FF9CF98F"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFEC1818"/>
+        <color rgb="FF9CF98F"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{2DCB8DF9-D3E0-4A5A-BC9C-46C66B2D4374}">
+            <x14:iconSet iconSet="3Stars">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>8</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D5:D8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>